--- a/Automation Practice Test Case.xlsx
+++ b/Automation Practice Test Case.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="28780" windowHeight="16620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Contact Us" sheetId="2" r:id="rId2"/>
     <sheet name="Sign In" sheetId="3" r:id="rId3"/>
+    <sheet name="Script List" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="163">
   <si>
     <t>Test Case List</t>
   </si>
@@ -453,6 +454,63 @@
   </si>
   <si>
     <t>Click 'Home' icon</t>
+  </si>
+  <si>
+    <t>AutomationPractice</t>
+  </si>
+  <si>
+    <t>Script List</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Title test</t>
+  </si>
+  <si>
+    <t>test_title</t>
+  </si>
+  <si>
+    <t>Search test</t>
+  </si>
+  <si>
+    <t>test_search</t>
+  </si>
+  <si>
+    <t>Search result test</t>
+  </si>
+  <si>
+    <t>test_search_result</t>
+  </si>
+  <si>
+    <t>Add to cart test</t>
+  </si>
+  <si>
+    <t>test_add_to_cart_click</t>
+  </si>
+  <si>
+    <t>Order summary test</t>
+  </si>
+  <si>
+    <t>test_order_summary</t>
+  </si>
+  <si>
+    <t>Order create account test</t>
+  </si>
+  <si>
+    <t>test_order_create_account</t>
+  </si>
+  <si>
+    <t>Order sign in test</t>
+  </si>
+  <si>
+    <t>test_order_sign_in</t>
+  </si>
+  <si>
+    <t>automation_practice.py</t>
   </si>
 </sst>
 </file>
@@ -555,7 +613,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,6 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -923,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2085,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2219,4 +2278,130 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>